--- a/data/covid19_vax.xlsx
+++ b/data/covid19_vax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagae/home/_work/_workingpaper/GitHub/CoVid-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8CFF18-CD15-694F-8ED7-E6F582DF0E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E590C828-9090-4D42-95EA-3EE86B483126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
+    <workbookView xWindow="6440" yWindow="5400" windowWidth="30080" windowHeight="22300" xr2:uid="{67AC3EEA-7C1F-3548-AD8A-730D69870014}"/>
   </bookViews>
   <sheets>
     <sheet name="感染_ワクチン" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>10才未満</t>
     <phoneticPr fontId="1"/>
@@ -144,167 +144,178 @@
     <t xml:space="preserve">死亡報告数(内数) </t>
   </si>
   <si>
+    <t xml:space="preserve">15~19歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20~24歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25~29歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30~34歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35~39歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40~44歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45~49歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50~54歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55~59歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60~64歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65~69歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70~74歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75~79歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80歳以上 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">不明 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(参考)65歳以上 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(参考)12~17歳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(参考)18~24歳 </t>
+  </si>
+  <si>
+    <t>年代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接種回数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重篤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副反応疑い報告数</t>
+  </si>
+  <si>
+    <t>重篤報告数(内数)</t>
+  </si>
+  <si>
+    <t>死亡報告数(内数)</t>
+  </si>
+  <si>
+    <t>疑い報告</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代以上</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/4/19陽性数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/4/19死亡数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10601000/000938133.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワクチン副反応(第79回厚生科学審議会予防接種・ワクチン分科会副反応検討部会)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000931620.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コロナ陽性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コロナ死亡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/2/17〜2022/4/17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">0~4歳 </t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">5~9歳 </t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">10~14歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15~19歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20~24歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25~29歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30~34歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">35~39歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40~44歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45~49歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50~54歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">55~59歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">60~64歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">65~69歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">70~74歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">75~79歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80歳以上 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">不明 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(参考)65歳以上 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(参考)12~17歳 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(参考)18~24歳 </t>
-  </si>
-  <si>
-    <t>年代</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>接種回数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重篤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>副反応疑い報告数</t>
-  </si>
-  <si>
-    <t>重篤報告数(内数)</t>
-  </si>
-  <si>
-    <t>死亡報告数(内数)</t>
-  </si>
-  <si>
-    <t>疑い報告</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代以上</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022/4/19陽性数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022/4/19死亡数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/2/15陽性数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/2/15死亡数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/2/15感染状況</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022/4/19感染状況</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.mhlw.go.jp/content/10601000/000938133.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ワクチン副反応(第79回厚生科学審議会予防接種・ワクチン分科会副反応検討部会)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.mhlw.go.jp/content/10906000/000898832.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.mhlw.go.jp/content/10906000/000931620.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コロナ陽性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コロナ死亡</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/2/15〜2022/4/17 のコロナ陽性・死亡数とワクチン接種・副反応の比較</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/2/15〜2022/4/19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/2/17〜2022/4/17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80歳以上</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/2/17〜2022/4/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mhlw.go.jp/content/10906000/000741558.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/2/17陽性数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/2/17死亡数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/4/19 新型コロナウイルス感染症の国内発生動向</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/2/17 新型コロナウイルス感染症の国内発生動向</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/2/17〜2022/4/19 のコロナ陽性・死亡数とワクチン接種・副反応の比較</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(データ出典)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -377,7 +388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -729,6 +740,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,82 +798,85 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,7 +1210,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -1197,294 +1220,299 @@
     </row>
     <row r="2" spans="1:6" ht="21" thickBot="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17">
         <f t="array" ref="B3:B12">TRANSPOSE(感染状況!B2:K2)-TRANSPOSE(感染状況!B4:K4)</f>
-        <v>572397</v>
-      </c>
-      <c r="C3" s="20">
+        <v>951797</v>
+      </c>
+      <c r="C3" s="18">
         <f t="array" ref="C3:C12">TRANSPOSE(感染状況!B3:K3)-TRANSPOSE(感染状況!B5:K5)</f>
         <v>4</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <f t="array" ref="D3:D12">一次集計!B2:B11</f>
         <v>646570</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <f t="array" ref="E3:E12">一次集計!D2:D11</f>
         <v>2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <f t="array" ref="F3:F12">一次集計!E2:E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
-        <v>507023</v>
-      </c>
-      <c r="C4" s="22">
-        <v>4</v>
+      <c r="B4" s="19">
+        <v>972048</v>
+      </c>
+      <c r="C4" s="20">
+        <v>8</v>
       </c>
       <c r="D4" s="7">
         <v>14935944</v>
       </c>
       <c r="E4" s="5">
-        <v>5</v>
+        <v>443</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
-        <v>471733</v>
-      </c>
-      <c r="C5" s="22">
-        <v>6</v>
+      <c r="B5" s="19">
+        <v>1209608</v>
+      </c>
+      <c r="C5" s="20">
+        <v>33</v>
       </c>
       <c r="D5" s="7">
         <v>24344165</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>767</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21">
-        <v>503746</v>
-      </c>
-      <c r="C6" s="22">
-        <v>16</v>
+      <c r="B6" s="19">
+        <v>1057962</v>
+      </c>
+      <c r="C6" s="20">
+        <v>96</v>
       </c>
       <c r="D6" s="7">
         <v>27589904</v>
       </c>
       <c r="E6" s="6">
-        <v>362</v>
+        <v>803</v>
       </c>
       <c r="F6" s="5">
-        <v>135</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21">
-        <v>491902</v>
-      </c>
-      <c r="C7" s="22">
-        <v>61</v>
+      <c r="B7" s="19">
+        <v>1021168</v>
+      </c>
+      <c r="C7" s="20">
+        <v>321</v>
       </c>
       <c r="D7" s="7">
         <v>38076114</v>
       </c>
       <c r="E7" s="6">
-        <v>840</v>
+        <v>998</v>
       </c>
       <c r="F7" s="5">
-        <v>209</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21">
-        <v>283597</v>
-      </c>
-      <c r="C8" s="22">
-        <v>167</v>
+      <c r="B8" s="19">
+        <v>645987</v>
+      </c>
+      <c r="C8" s="20">
+        <v>891</v>
       </c>
       <c r="D8" s="7">
         <v>40687590</v>
       </c>
       <c r="E8" s="6">
-        <v>1837</v>
+        <v>812</v>
       </c>
       <c r="F8" s="5">
-        <v>240</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21">
-        <v>148801</v>
-      </c>
-      <c r="C9" s="22">
-        <v>429</v>
+      <c r="B9" s="19">
+        <v>334198</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1637</v>
       </c>
       <c r="D9" s="7">
         <v>39678318</v>
       </c>
       <c r="E9" s="6">
-        <v>2376</v>
+        <v>718</v>
       </c>
       <c r="F9" s="5">
-        <v>317</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21">
-        <v>102405</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1618</v>
+      <c r="B10" s="19">
+        <v>235478</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4651</v>
       </c>
       <c r="D10" s="7">
         <v>44922059</v>
       </c>
       <c r="E10" s="6">
-        <v>2198</v>
+        <v>1035</v>
       </c>
       <c r="F10" s="5">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21">
-        <v>111423</v>
-      </c>
-      <c r="C11" s="22">
-        <v>6120</v>
+      <c r="B11" s="19">
+        <v>235264</v>
+      </c>
+      <c r="C11" s="20">
+        <v>13944</v>
       </c>
       <c r="D11" s="7">
         <v>32873713</v>
       </c>
       <c r="E11" s="6">
-        <v>2710</v>
+        <v>1563</v>
       </c>
       <c r="F11" s="5">
-        <v>361</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" thickBot="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="23">
-        <v>8937</v>
-      </c>
-      <c r="C12" s="24">
-        <v>277</v>
+      <c r="B12" s="21">
+        <v>21830</v>
+      </c>
+      <c r="C12" s="22">
+        <v>931</v>
       </c>
       <c r="D12" s="10">
         <v>2198453</v>
       </c>
       <c r="E12" s="11">
-        <v>3118</v>
+        <v>6</v>
       </c>
       <c r="F12" s="12">
-        <v>405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" thickBot="1">
-      <c r="A13" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="25">
+      <c r="A13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="23">
         <f>SUM(B3:B12)</f>
-        <v>3201964</v>
-      </c>
-      <c r="C13" s="26">
+        <v>6685340</v>
+      </c>
+      <c r="C13" s="24">
         <f>SUM(C3:C12)</f>
-        <v>8702</v>
-      </c>
-      <c r="D13" s="16">
+        <v>22516</v>
+      </c>
+      <c r="D13" s="14">
         <f>SUM(D3:D12)</f>
         <v>265952830</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <f t="shared" ref="E13:F13" si="0">SUM(E3:E12)</f>
-        <v>13451</v>
-      </c>
-      <c r="F13" s="15">
+        <v>7147</v>
+      </c>
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
-        <v>1950</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="39" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1509,14 +1537,14 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1540,18 +1568,18 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>963538</v>
@@ -1590,7 +1618,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1629,80 +1657,80 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>391141</v>
+        <v>11741</v>
       </c>
       <c r="C4">
-        <v>492545</v>
+        <v>27520</v>
       </c>
       <c r="D4">
-        <v>829802</v>
+        <v>91927</v>
       </c>
       <c r="E4">
-        <v>616937</v>
+        <v>62721</v>
       </c>
       <c r="F4">
-        <v>589137</v>
+        <v>59871</v>
       </c>
       <c r="G4">
-        <v>417666</v>
+        <v>55276</v>
       </c>
       <c r="H4">
-        <v>221336</v>
+        <v>35939</v>
       </c>
       <c r="I4">
-        <v>165081</v>
+        <v>32008</v>
       </c>
       <c r="J4">
-        <v>156766</v>
+        <v>32925</v>
       </c>
       <c r="K4" s="1">
         <f>L4-SUM(B4:J4)</f>
-        <v>20050</v>
+        <v>7157</v>
       </c>
       <c r="L4">
-        <v>3900461</v>
+        <v>417085</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>886</v>
+        <v>162</v>
       </c>
       <c r="H5">
-        <v>1719</v>
+        <v>511</v>
       </c>
       <c r="I5">
-        <v>4588</v>
+        <v>1555</v>
       </c>
       <c r="J5">
-        <v>12088</v>
+        <v>4264</v>
       </c>
       <c r="K5" s="1">
         <f>L5-SUM(B5:J5)</f>
-        <v>693</v>
+        <v>39</v>
       </c>
       <c r="L5">
-        <v>20419</v>
+        <v>6605</v>
       </c>
     </row>
   </sheetData>
@@ -1717,46 +1745,46 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E11"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(PDFデータ!A2)+SUM(PDFデータ!F3:F4)</f>
+        <f>SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!C3:C23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!G3:G23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!K3:K23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!O3:O23)</f>
         <v>646570</v>
       </c>
       <c r="C2" s="1">
-        <f>SUM(PDFデータ!B2)+SUM(PDFデータ!G3:G4)</f>
+        <f>SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!D3:D23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!H3:H23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!L3:L23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!P3:P23)</f>
         <v>11</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(PDFデータ!C2)+SUM(PDFデータ!H3:H4)</f>
+        <f>SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!E3:E23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!I3:I23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!M3:M23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!Q3:Q23)</f>
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <f>SUM(PDFデータ!D2)+SUM(PDFデータ!I3:I4)</f>
+        <f>SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!F3:F23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!J3:J23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!N3:N23)+SUMIF(PDFデータ!$B3:$B23,$A2,PDFデータ!R3:R23)</f>
         <v>0</v>
       </c>
     </row>
@@ -1765,20 +1793,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(PDFデータ!B5:B6)+SUM(PDFデータ!F5:F6)+SUM(PDFデータ!J5:J6)+SUM(PDFデータ!N5:N6)</f>
+        <f>SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!C4:C24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!G4:G24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!K4:K24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!O4:O24)</f>
         <v>14935944</v>
       </c>
       <c r="C3" s="1">
-        <f>SUM(PDFデータ!B3)+SUM(PDFデータ!G4:G5)</f>
-        <v>29</v>
+        <f>SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!D4:D24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!H4:H24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!L4:L24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!P4:P24)</f>
+        <v>1759</v>
       </c>
       <c r="D3" s="1">
-        <f>SUM(PDFデータ!C3)+SUM(PDFデータ!H4:H5)</f>
-        <v>5</v>
+        <f>SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!E4:E24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!I4:I24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!M4:M24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!Q4:Q24)</f>
+        <v>443</v>
       </c>
       <c r="E3" s="1">
-        <f>SUM(PDFデータ!D3)+SUM(PDFデータ!I4:I5)</f>
-        <v>0</v>
+        <f>SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!F4:F24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!J4:J24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!N4:N24)+SUMIF(PDFデータ!$B4:$B24,$A3,PDFデータ!R4:R24)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1786,20 +1814,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <f>SUM(PDFデータ!B7:B8)+SUM(PDFデータ!F7:F8)+SUM(PDFデータ!J7:J8)+SUM(PDFデータ!N7:N8)</f>
+        <f>SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!C5:C25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!G5:G25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!K5:K25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!O5:O25)</f>
         <v>24344165</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM(PDFデータ!B4)+SUM(PDFデータ!G5:G6)</f>
-        <v>18</v>
+        <f>SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!D5:D25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!H5:H25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!L5:L25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!P5:P25)</f>
+        <v>5719</v>
       </c>
       <c r="D4" s="1">
-        <f>SUM(PDFデータ!C4)+SUM(PDFデータ!H5:H6)</f>
-        <v>3</v>
+        <f>SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!E5:E25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!I5:I25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!M5:M25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!Q5:Q25)</f>
+        <v>767</v>
       </c>
       <c r="E4" s="1">
-        <f>SUM(PDFデータ!D4)+SUM(PDFデータ!I5:I6)</f>
-        <v>0</v>
+        <f>SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!F5:F25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!J5:J25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!N5:N25)+SUMIF(PDFデータ!$B5:$B25,$A4,PDFデータ!R5:R25)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1807,20 +1835,20 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <f>SUM(PDFデータ!B9:B10)+SUM(PDFデータ!F9:F10)+SUM(PDFデータ!J9:J10)+SUM(PDFデータ!N9:N10)</f>
+        <f>SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!C6:C26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!G6:G26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!K6:K26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!O6:O26)</f>
         <v>27589904</v>
       </c>
       <c r="C5" s="1">
-        <f>SUM(PDFデータ!B5)+SUM(PDFデータ!G6:G7)</f>
-        <v>4231173</v>
+        <f>SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!D6:D26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!H6:H26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!L6:L26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!P6:P26)</f>
+        <v>5750</v>
       </c>
       <c r="D5" s="1">
-        <f>SUM(PDFデータ!C5)+SUM(PDFデータ!H6:H7)</f>
-        <v>362</v>
+        <f>SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!E6:E26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!I6:I26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!M6:M26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!Q6:Q26)</f>
+        <v>803</v>
       </c>
       <c r="E5" s="1">
-        <f>SUM(PDFデータ!D5)+SUM(PDFデータ!I6:I7)</f>
-        <v>135</v>
+        <f>SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!F6:F26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!J6:J26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!N6:N26)+SUMIF(PDFデータ!$B6:$B26,$A5,PDFデータ!R6:R26)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1828,20 +1856,20 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <f>SUM(PDFデータ!B11:B12)+SUM(PDFデータ!F11:F12)+SUM(PDFデータ!J11:J12)+SUM(PDFデータ!N11:N12)</f>
+        <f>SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!C7:C27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!G7:G27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!K7:K27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!O7:O27)</f>
         <v>38076114</v>
       </c>
       <c r="C6" s="1">
-        <f>SUM(PDFデータ!B6)+SUM(PDFデータ!G7:G8)</f>
-        <v>8253555</v>
+        <f>SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!D7:D27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!H7:H27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!L7:L27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!P7:P27)</f>
+        <v>7039</v>
       </c>
       <c r="D6" s="1">
-        <f>SUM(PDFデータ!C6)+SUM(PDFデータ!H7:H8)</f>
-        <v>840</v>
+        <f>SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!E7:E27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!I7:I27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!M7:M27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!Q7:Q27)</f>
+        <v>998</v>
       </c>
       <c r="E6" s="1">
-        <f>SUM(PDFデータ!D6)+SUM(PDFデータ!I7:I8)</f>
-        <v>209</v>
+        <f>SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!F7:F27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!J7:J27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!N7:N27)+SUMIF(PDFデータ!$B7:$B27,$A6,PDFデータ!R7:R27)</f>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1849,20 +1877,20 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <f>SUM(PDFデータ!B13:B14)+SUM(PDFデータ!F13:F14)+SUM(PDFデータ!J13:J14)+SUM(PDFデータ!N13:N14)</f>
+        <f>SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!C8:C28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!G8:G28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!K8:K28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!O8:O28)</f>
         <v>40687590</v>
       </c>
       <c r="C7" s="1">
-        <f>SUM(PDFデータ!B7)+SUM(PDFデータ!G8:G9)</f>
-        <v>7037440</v>
+        <f>SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!D8:D28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!H8:H28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!L8:L28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!P8:P28)</f>
+        <v>5008</v>
       </c>
       <c r="D7" s="1">
-        <f>SUM(PDFデータ!C7)+SUM(PDFデータ!H8:H9)</f>
-        <v>1837</v>
+        <f>SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!E8:E28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!I8:I28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!M8:M28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!Q8:Q28)</f>
+        <v>812</v>
       </c>
       <c r="E7" s="1">
-        <f>SUM(PDFデータ!D7)+SUM(PDFデータ!I8:I9)</f>
-        <v>240</v>
+        <f>SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!F8:F28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!J8:J28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!N8:N28)+SUMIF(PDFデータ!$B8:$B28,$A7,PDFデータ!R8:R28)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1870,20 +1898,20 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <f>SUM(PDFデータ!B15:B16)+SUM(PDFデータ!F15:F16)+SUM(PDFデータ!J15:J16)+SUM(PDFデータ!N15:N16)</f>
+        <f>SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!C9:C29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!G9:G29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!K9:K29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!O9:O29)</f>
         <v>39678318</v>
       </c>
       <c r="C8" s="1">
-        <f>SUM(PDFデータ!B8)+SUM(PDFデータ!G9:G10)</f>
-        <v>7947690</v>
+        <f>SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!D9:D29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!H9:H29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!L9:L29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!P9:P29)</f>
+        <v>2908</v>
       </c>
       <c r="D8" s="1">
-        <f>SUM(PDFデータ!C8)+SUM(PDFデータ!H9:H10)</f>
-        <v>2376</v>
+        <f>SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!E9:E29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!I9:I29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!M9:M29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!Q9:Q29)</f>
+        <v>718</v>
       </c>
       <c r="E8" s="1">
-        <f>SUM(PDFデータ!D8)+SUM(PDFデータ!I9:I10)</f>
-        <v>317</v>
+        <f>SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!F9:F29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!J9:J29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!N9:N29)+SUMIF(PDFデータ!$B9:$B29,$A8,PDFデータ!R9:R29)</f>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1891,41 +1919,41 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <f>SUM(PDFデータ!B17:B18)+SUM(PDFデータ!F17:F18)+SUM(PDFデータ!J17:J18)+SUM(PDFデータ!N17:N18)</f>
+        <f>SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!C10:C30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!G10:G30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!K10:K30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!O10:O30)</f>
         <v>44922059</v>
       </c>
       <c r="C9" s="1">
-        <f>SUM(PDFデータ!B9)+SUM(PDFデータ!G10:G11)</f>
-        <v>8649509</v>
+        <f>SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!D10:D30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!H10:H30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!L10:L30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!P10:P30)</f>
+        <v>2473</v>
       </c>
       <c r="D9" s="1">
-        <f>SUM(PDFデータ!C9)+SUM(PDFデータ!H10:H11)</f>
-        <v>2198</v>
+        <f>SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!E10:E30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!I10:I30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!M10:M30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!Q10:Q30)</f>
+        <v>1035</v>
       </c>
       <c r="E9" s="1">
-        <f>SUM(PDFデータ!D9)+SUM(PDFデータ!I10:I11)</f>
-        <v>283</v>
+        <f>SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!F10:F30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!J10:J30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!N10:N30)+SUMIF(PDFデータ!$B10:$B30,$A9,PDFデータ!R10:R30)</f>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
-        <f>PDFデータ!B19+PDFデータ!F19+PDFデータ!J19+PDFデータ!N19</f>
+        <f>SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!C11:C31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!G11:G31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!K11:K31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!O11:O31)</f>
         <v>32873713</v>
       </c>
       <c r="C10" s="1">
-        <f>SUM(PDFデータ!B10)+SUM(PDFデータ!G11:G12)</f>
-        <v>10241017</v>
+        <f>SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!D11:D31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!H11:H31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!L11:L31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!P11:P31)</f>
+        <v>2635</v>
       </c>
       <c r="D10" s="1">
-        <f>SUM(PDFデータ!C10)+SUM(PDFデータ!H11:H12)</f>
-        <v>2710</v>
+        <f>SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!E11:E31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!I11:I31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!M11:M31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!Q11:Q31)</f>
+        <v>1563</v>
       </c>
       <c r="E10" s="1">
-        <f>SUM(PDFデータ!D10)+SUM(PDFデータ!I11:I12)</f>
-        <v>361</v>
+        <f>SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!F11:F31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!J11:J31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!N11:N31)+SUMIF(PDFデータ!$B11:$B31,$A10,PDFデータ!R11:R31)</f>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1933,20 +1961,20 @@
         <v>20</v>
       </c>
       <c r="B11" s="1">
-        <f>PDFデータ!B20+PDFデータ!F20+PDFデータ!J20+PDFデータ!N20</f>
+        <f>SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!C12:C32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!G12:G32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!K12:K32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!O12:O32)</f>
         <v>2198453</v>
       </c>
       <c r="C11" s="1">
-        <f>SUM(PDFデータ!B11)+SUM(PDFデータ!G12:G13)</f>
-        <v>12188364</v>
+        <f>SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!D12:D32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!H12:H32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!L12:L32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!P12:P32)</f>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM(PDFデータ!C11)+SUM(PDFデータ!H12:H13)</f>
-        <v>3118</v>
+        <f>SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!E12:E32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!I12:I32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!M12:M32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!Q12:Q32)</f>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM(PDFデータ!D11)+SUM(PDFデータ!I12:I13)</f>
-        <v>405</v>
+        <f>SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!F12:F32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!J12:J32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!N12:N32)+SUMIF(PDFデータ!$B12:$B32,$A11,PDFデータ!R12:R32)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1958,638 +1986,697 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1CB49E-6143-6A46-8F99-C68B8548C5AD}">
-  <dimension ref="A1:Q24"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:Q4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="B2" s="3" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>53</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:B10" si="0">IF(OR(A3="0~4歳 ",A3="5~9歳 "),"10歳未満",IF(OR(A3="10~14歳 ",A3="15~19歳 "),"10代",IF(OR(A3="20~24歳 ",A3="25~29歳 "),"20代",IF(OR(A3="30~34歳 ",A3="35~39歳 "),"30代",IF(OR(A3="40~44歳 ",A3="45~49歳 "),"40代",IF(OR(A3="50~54歳 ",A3="55~59歳 "),"50代",IF(OR(A3="60~64歳 ",A3="65~69歳 "),"60代",IF(OR(A3="70~74歳 ",A3="75~79歳 "),"70代",IF(A3="80歳以上 ","80歳以上","不明")))))))))</f>
+        <v>10歳未満</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="array" ref="C3:F4">0</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="array" ref="K3:R4">0</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10歳未満</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>646570</v>
+      </c>
+      <c r="H4" s="3">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10代</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4231173</v>
+      </c>
+      <c r="D5" s="3">
+        <v>362</v>
+      </c>
+      <c r="E5" s="3">
+        <v>135</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>571074</v>
+      </c>
+      <c r="H5" s="3">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>214667</v>
+      </c>
+      <c r="L5" s="3">
+        <v>37</v>
+      </c>
+      <c r="M5" s="3">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3">
-        <f t="array" ref="B3:E4">0</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="array" ref="J3:Q4">0</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="3" t="s">
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10代</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8253555</v>
+      </c>
+      <c r="D6" s="3">
+        <v>840</v>
+      </c>
+      <c r="E6" s="3">
+        <v>209</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="array" ref="G6:J23">0</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1665406</v>
+      </c>
+      <c r="L6" s="3">
+        <v>502</v>
+      </c>
+      <c r="M6" s="3">
+        <v>81</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>66</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>646570</v>
-      </c>
-      <c r="G4" s="3">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20代</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7037440</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1837</v>
+      </c>
+      <c r="E7" s="3">
+        <v>240</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4957618</v>
+      </c>
+      <c r="L7" s="3">
+        <v>941</v>
+      </c>
+      <c r="M7" s="3">
+        <v>129</v>
+      </c>
+      <c r="N7" s="3">
+        <v>6</v>
+      </c>
+      <c r="O7" s="3">
+        <v>340</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4">
-        <v>4231173</v>
-      </c>
-      <c r="C5" s="3">
-        <v>362</v>
-      </c>
-      <c r="D5" s="3">
-        <v>135</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>571074</v>
-      </c>
-      <c r="G5" s="3">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>214667</v>
-      </c>
-      <c r="K5" s="3">
-        <v>37</v>
-      </c>
-      <c r="L5" s="3">
-        <v>15</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>3</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4">
-        <v>8253555</v>
-      </c>
-      <c r="C6" s="3">
-        <v>840</v>
-      </c>
-      <c r="D6" s="3">
-        <v>209</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="array" ref="F6:I23">0</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1665406</v>
-      </c>
-      <c r="K6" s="3">
-        <v>502</v>
-      </c>
-      <c r="L6" s="3">
-        <v>81</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>66</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4">
-        <v>7037440</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1837</v>
-      </c>
-      <c r="D7" s="3">
-        <v>240</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20代</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7947690</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2376</v>
+      </c>
+      <c r="E8" s="3">
+        <v>317</v>
+      </c>
+      <c r="F8" s="3">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4400588</v>
+      </c>
+      <c r="L8" s="3">
+        <v>564</v>
+      </c>
+      <c r="M8" s="3">
+        <v>80</v>
+      </c>
+      <c r="N8" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>4957618</v>
-      </c>
-      <c r="K7" s="3">
-        <v>941</v>
-      </c>
-      <c r="L7" s="3">
-        <v>129</v>
-      </c>
-      <c r="M7" s="3">
-        <v>6</v>
-      </c>
-      <c r="N7" s="3">
-        <v>340</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7947690</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2376</v>
-      </c>
-      <c r="D8" s="3">
-        <v>317</v>
-      </c>
-      <c r="E8" s="3">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>4400588</v>
-      </c>
-      <c r="K8" s="3">
-        <v>564</v>
-      </c>
-      <c r="L8" s="3">
-        <v>80</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>489</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1</v>
       </c>
       <c r="P8" s="3">
         <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>30代</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8649509</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2198</v>
+      </c>
+      <c r="E9" s="3">
+        <v>283</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4202760</v>
+      </c>
+      <c r="L9" s="3">
+        <v>446</v>
+      </c>
+      <c r="M9" s="3">
+        <v>84</v>
+      </c>
+      <c r="N9" s="3">
+        <v>6</v>
+      </c>
+      <c r="O9" s="3">
+        <v>549</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>30代</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10241017</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2710</v>
+      </c>
+      <c r="E10" s="3">
+        <v>361</v>
+      </c>
+      <c r="F10" s="3">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4495412</v>
+      </c>
+      <c r="L10" s="3">
+        <v>396</v>
+      </c>
+      <c r="M10" s="3">
+        <v>75</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>657</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>IF(OR(A11="0~4歳 ",A11="5~9歳 "),"10歳未満",IF(OR(A11="10~14歳 ",A11="15~19歳 "),"10代",IF(OR(A11="20~24歳 ",A11="25~29歳 "),"20代",IF(OR(A11="30~34歳 ",A11="35~39歳 "),"30代",IF(OR(A11="40~44歳 ",A11="45~49歳 "),"40代",IF(OR(A11="50~54歳 ",A11="55~59歳 "),"50代",IF(OR(A11="60~64歳 ",A11="65~69歳 "),"60代",IF(OR(A11="70~74歳 ",A11="75~79歳 "),"70代",IF(A11="80歳以上 ","80歳以上","不明")))))))))</f>
+        <v>40代</v>
+      </c>
+      <c r="C11" s="4">
+        <v>12188364</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3118</v>
+      </c>
+      <c r="E11" s="3">
+        <v>405</v>
+      </c>
+      <c r="F11" s="3">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4828575</v>
+      </c>
+      <c r="L11" s="3">
+        <v>389</v>
+      </c>
+      <c r="M11" s="3">
+        <v>57</v>
+      </c>
+      <c r="N11" s="3">
+        <v>9</v>
+      </c>
+      <c r="O11" s="4">
+        <v>22563</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4">
-        <v>8649509</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2198</v>
-      </c>
-      <c r="D9" s="3">
-        <v>283</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>4202760</v>
-      </c>
-      <c r="K9" s="3">
-        <v>446</v>
-      </c>
-      <c r="L9" s="3">
-        <v>84</v>
-      </c>
-      <c r="M9" s="3">
-        <v>6</v>
-      </c>
-      <c r="N9" s="3">
-        <v>549</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="3" t="s">
+      <c r="B12" s="3" t="str">
+        <f t="shared" ref="B12:B20" si="1">IF(OR(A12="0~4歳 ",A12="5~9歳 "),"10歳未満",IF(OR(A12="10~14歳 ",A12="15~19歳 "),"10代",IF(OR(A12="20~24歳 ",A12="25~29歳 "),"20代",IF(OR(A12="30~34歳 ",A12="35~39歳 "),"30代",IF(OR(A12="40~44歳 ",A12="45~49歳 "),"40代",IF(OR(A12="50~54歳 ",A12="55~59歳 "),"50代",IF(OR(A12="60~64歳 ",A12="65~69歳 "),"60代",IF(OR(A12="70~74歳 ",A12="75~79歳 "),"70代",IF(A12="80歳以上 ","80歳以上","不明")))))))))</f>
+        <v>40代</v>
+      </c>
+      <c r="C12" s="4">
+        <v>15144965</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3126</v>
+      </c>
+      <c r="E12" s="3">
+        <v>456</v>
+      </c>
+      <c r="F12" s="3">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5860435</v>
+      </c>
+      <c r="L12" s="3">
+        <v>398</v>
+      </c>
+      <c r="M12" s="3">
+        <v>76</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4">
+        <v>31212</v>
+      </c>
+      <c r="P12" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4">
-        <v>10241017</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2710</v>
-      </c>
-      <c r="D10" s="3">
-        <v>361</v>
-      </c>
-      <c r="E10" s="3">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>4495412</v>
-      </c>
-      <c r="K10" s="3">
-        <v>396</v>
-      </c>
-      <c r="L10" s="3">
-        <v>75</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
-        <v>657</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4">
-        <v>12188364</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3118</v>
-      </c>
-      <c r="D11" s="3">
-        <v>405</v>
-      </c>
-      <c r="E11" s="3">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>4828575</v>
-      </c>
-      <c r="K11" s="3">
-        <v>389</v>
-      </c>
-      <c r="L11" s="3">
-        <v>57</v>
-      </c>
-      <c r="M11" s="3">
-        <v>9</v>
-      </c>
-      <c r="N11" s="4">
-        <v>22563</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4">
-        <v>15144965</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3126</v>
-      </c>
-      <c r="D12" s="3">
-        <v>456</v>
-      </c>
-      <c r="E12" s="3">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5860435</v>
-      </c>
-      <c r="K12" s="3">
-        <v>398</v>
-      </c>
-      <c r="L12" s="3">
-        <v>76</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5</v>
-      </c>
-      <c r="N12" s="4">
-        <v>31212</v>
-      </c>
-      <c r="O12" s="3">
-        <v>7</v>
-      </c>
-      <c r="P12" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>50代</v>
+      </c>
+      <c r="C13" s="4">
         <v>15622940</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>2517</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>376</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>34</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
@@ -2599,50 +2686,55 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>5898338</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>310</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>72</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>11</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>25959</v>
-      </c>
-      <c r="O13" s="3">
-        <v>2</v>
       </c>
       <c r="P13" s="3">
         <v>2</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>50代</v>
+      </c>
+      <c r="C14" s="4">
         <v>14049662</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>1943</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>306</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>31</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -2652,50 +2744,55 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
         <v>5073151</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>233</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>17540</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>60代</v>
+      </c>
+      <c r="C15" s="4">
         <v>14662995</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>1314</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>260</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>30</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -2705,50 +2802,55 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
         <v>4266657</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>147</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>10259</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
       </c>
       <c r="P15" s="3">
         <v>1</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="4">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>60代</v>
+      </c>
+      <c r="C16" s="4">
         <v>17089279</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>1288</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>385</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>65</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
@@ -2758,50 +2860,55 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>3646424</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>158</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>39</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>5</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>2704</v>
       </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
       <c r="P16" s="3">
         <v>0</v>
       </c>
       <c r="Q16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>70代</v>
+      </c>
+      <c r="C17" s="4">
         <v>22155285</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>1286</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>506</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>140</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -2811,209 +2918,226 @@
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
         <v>4017173</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>116</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>2130</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1</v>
       </c>
       <c r="P17" s="3">
         <v>1</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>70代</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16446246</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E18" s="3">
+        <v>459</v>
+      </c>
+      <c r="F18" s="3">
+        <v>142</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2300202</v>
+      </c>
+      <c r="L18" s="3">
+        <v>52</v>
+      </c>
+      <c r="M18" s="3">
+        <v>23</v>
+      </c>
+      <c r="N18" s="3">
+        <v>8</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1023</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>80歳以上</v>
+      </c>
+      <c r="C19" s="4">
+        <v>29419740</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2534</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1493</v>
+      </c>
+      <c r="F19" s="3">
+        <v>658</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3452929</v>
+      </c>
+      <c r="L19" s="3">
+        <v>101</v>
+      </c>
+      <c r="M19" s="3">
+        <v>70</v>
+      </c>
+      <c r="N19" s="3">
+        <v>29</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1044</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>不明</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1981736</v>
+      </c>
+      <c r="D20" s="3">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>216348</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>369</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="4">
-        <v>16446246</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1018</v>
-      </c>
-      <c r="D18" s="3">
-        <v>459</v>
-      </c>
-      <c r="E18" s="3">
-        <v>142</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>2300202</v>
-      </c>
-      <c r="K18" s="3">
-        <v>52</v>
-      </c>
-      <c r="L18" s="3">
-        <v>23</v>
-      </c>
-      <c r="M18" s="3">
-        <v>8</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1023</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="4">
-        <v>29419740</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2534</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1493</v>
-      </c>
-      <c r="E19" s="3">
-        <v>658</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>3452929</v>
-      </c>
-      <c r="K19" s="3">
-        <v>101</v>
-      </c>
-      <c r="L19" s="3">
-        <v>70</v>
-      </c>
-      <c r="M19" s="3">
-        <v>29</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1044</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1981736</v>
-      </c>
-      <c r="C20" s="3">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>216348</v>
-      </c>
-      <c r="K20" s="3">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>369</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4">
         <v>85110550</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>6126</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>2843</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>1005</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
@@ -3023,50 +3147,52 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
         <v>13416728</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>427</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>178</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>6901</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1</v>
       </c>
       <c r="P21" s="3">
         <v>1</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="4">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4">
         <v>9337352</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>819</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>265</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -3076,50 +3202,52 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
         <v>621681</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>108</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
         <v>10184816</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>2220</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>319</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -3129,53 +3257,59 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
         <v>6216010</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>1372</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>186</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>406</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>